--- a/public/files/Pinger_Excel_Template.xlsx
+++ b/public/files/Pinger_Excel_Template.xlsx
@@ -107,12 +107,6 @@
     <t>line_capacity_id</t>
   </si>
   <si>
-    <t>added_on_entuity</t>
-  </si>
-  <si>
-    <t>entuity_status_id</t>
-  </si>
-  <si>
     <t>lan_ip</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   </si>
   <si>
     <t>switch_model_id</t>
+  </si>
+  <si>
+    <t>entuity_status</t>
+  </si>
+  <si>
+    <t>Entuty_add-id</t>
   </si>
 </sst>
 </file>
@@ -231,12 +231,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,8 +257,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -536,7 +543,7 @@
   <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
         <v>19</v>
@@ -625,10 +632,10 @@
         <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
         <v>3</v>
@@ -657,14 +664,14 @@
       <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
       </c>
       <c r="AB1" t="s">
         <v>5</v>
@@ -676,37 +683,37 @@
         <v>7</v>
       </c>
       <c r="AE1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>35</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>37</v>
       </c>
       <c r="AP1" t="s">
         <v>18</v>
@@ -714,13 +721,13 @@
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
       <c r="D2">
         <v>432</v>
@@ -732,13 +739,13 @@
         <v>42342342</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>423423</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <v>823778744</v>
@@ -747,10 +754,10 @@
         <v>2332</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2">
         <v>0.5</v>
@@ -759,7 +766,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q2">
         <v>3242</v>
@@ -768,73 +775,73 @@
         <v>423423</v>
       </c>
       <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>48</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
         <v>49</v>
-      </c>
-      <c r="V2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
       <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AI2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AJ2" t="s">
         <v>54</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AK2" t="s">
         <v>54</v>
       </c>
-      <c r="AG2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>56</v>
-      </c>
       <c r="AL2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" t="s">
         <v>54</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>56</v>
       </c>
       <c r="AN2">
         <v>1</v>
       </c>
       <c r="AO2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AP2">
         <v>1</v>

--- a/public/files/Pinger_Excel_Template.xlsx
+++ b/public/files/Pinger_Excel_Template.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -212,10 +212,13 @@
     <t>switch_model_id</t>
   </si>
   <si>
-    <t>entuity_status</t>
-  </si>
-  <si>
-    <t>Entuty_add-id</t>
+    <t>entuty_status_id</t>
+  </si>
+  <si>
+    <t>added_on_entuity</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -792,8 +795,8 @@
       <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2">
-        <v>1</v>
+      <c r="Y2" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
         <v>51</v>

--- a/public/files/Pinger_Excel_Template.xlsx
+++ b/public/files/Pinger_Excel_Template.xlsx
@@ -212,13 +212,13 @@
     <t>switch_model_id</t>
   </si>
   <si>
-    <t>entuty_status_id</t>
-  </si>
-  <si>
     <t>added_on_entuity</t>
   </si>
   <si>
     <t>Yes/No</t>
+  </si>
+  <si>
+    <t>entuity_status_id</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,10 +668,10 @@
         <v>24</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -796,7 +796,7 @@
         <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z2" t="s">
         <v>51</v>
